--- a/Term_Paper_Data.xlsx
+++ b/Term_Paper_Data.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e07e11af3bae967b/Documents/School Stuff/Econometrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Desktop\SCHOOL STUFF ALL OF IT\Econometrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECA98938-B946-44AA-95C9-3036B4EF7B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10E3394-23D2-4E02-82AE-E0F9109656D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="210" windowWidth="16440" windowHeight="15600" xr2:uid="{C7875E41-9C7D-4216-A713-5A670C7928DC}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C7875E41-9C7D-4216-A713-5A670C7928DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Alabama</t>
   </si>
@@ -189,19 +188,32 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Estimated % of All Ages in Poverty (2019)</t>
-  </si>
-  <si>
-    <t>Real Gross Domestic Product Annually Q4: Eductional Services (NAICS 61)(Millions)</t>
+    <t>States</t>
+  </si>
+  <si>
+    <t>Poverty</t>
+  </si>
+  <si>
+    <t>MINWAGE</t>
+  </si>
+  <si>
+    <t>LABPART</t>
+  </si>
+  <si>
+    <t>EDUC</t>
+  </si>
+  <si>
+    <t>LIVCOST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -256,13 +268,14 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -580,29 +593,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF96650A-611D-49A1-B88B-673DF3301D87}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="53.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" customWidth="1"/>
+    <col min="6" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,10 +637,19 @@
         <v>0.156</v>
       </c>
       <c r="C2" s="3">
-        <v>1132.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="F2">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -621,10 +657,19 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="C3" s="3">
-        <v>166.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.89</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F3">
+        <v>125.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -632,10 +677,19 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="C4" s="3">
-        <v>3717.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.622</v>
+      </c>
+      <c r="F4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -643,10 +697,19 @@
         <v>0.16</v>
       </c>
       <c r="C5" s="3">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.25</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="F5">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -654,10 +717,19 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="C6" s="3">
-        <v>2.9275000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.628</v>
+      </c>
+      <c r="F6">
+        <v>138.69999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -665,10 +737,19 @@
         <v>9.4E-2</v>
       </c>
       <c r="C7" s="3">
-        <v>2997.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11.1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F7">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -676,10 +757,19 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="C8" s="3">
-        <v>5749.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="F8">
+        <v>115.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -687,10 +777,19 @@
         <v>0.112</v>
       </c>
       <c r="C9" s="3">
-        <v>380.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.25</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="F9">
+        <v>105.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -698,10 +797,19 @@
         <v>0.127</v>
       </c>
       <c r="C10" s="3">
-        <v>9560</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.307</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="F10">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -709,10 +817,19 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="C11" s="3">
-        <v>5916.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.629</v>
+      </c>
+      <c r="F11">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -720,10 +837,19 @@
         <v>0.09</v>
       </c>
       <c r="C12" s="3">
-        <v>837.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10.1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="F12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -731,10 +857,19 @@
         <v>0.11</v>
       </c>
       <c r="C13" s="3">
-        <v>614.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F13">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -742,10 +877,19 @@
         <v>0.114</v>
       </c>
       <c r="C14" s="3">
-        <v>11110.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.25</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="F14">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -753,10 +897,19 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="C15" s="3">
-        <v>3331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F15">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -764,10 +917,19 @@
         <v>0.11</v>
       </c>
       <c r="C16" s="3">
-        <v>1529.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="F16">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -775,10 +937,19 @@
         <v>0.113</v>
       </c>
       <c r="C17" s="3">
-        <v>958.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F17">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -786,10 +957,19 @@
         <v>0.16</v>
       </c>
       <c r="C18" s="3">
-        <v>1272.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.251</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="F18">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -797,10 +977,19 @@
         <v>0.188</v>
       </c>
       <c r="C19" s="3">
-        <v>2429.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="F19">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -808,10 +997,19 @@
         <v>0.109</v>
       </c>
       <c r="C20" s="3">
-        <v>976.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.627</v>
+      </c>
+      <c r="F20">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -819,10 +1017,19 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="C21" s="3">
-        <v>5922.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10.1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="F21">
+        <v>124.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -830,10 +1037,19 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C22" s="3">
-        <v>15080.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="F22">
+        <v>149.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -841,10 +1057,19 @@
         <v>0.129</v>
       </c>
       <c r="C23" s="3">
-        <v>3526.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="F23">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -852,10 +1077,19 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="C24" s="3">
-        <v>3344.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.86</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.373</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="F24">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -863,10 +1097,19 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="C25" s="3">
-        <v>710.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.223</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F25">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -874,10 +1117,19 @@
         <v>0.129</v>
       </c>
       <c r="C26" s="3">
-        <v>3750.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.6</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="F26">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -885,10 +1137,19 @@
         <v>0.126</v>
       </c>
       <c r="C27" s="3">
-        <v>237.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.5</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F27">
+        <v>105.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -896,10 +1157,19 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="C28" s="3">
-        <v>876.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="F28">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -907,10 +1177,19 @@
         <v>0.127</v>
       </c>
       <c r="C29" s="3">
-        <v>874.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.25</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="F29">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -918,10 +1197,19 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C30" s="3">
-        <v>1797.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.376</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F30">
+        <v>114.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -929,10 +1217,19 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="C31" s="3">
-        <v>6769.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="F31">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -940,10 +1237,19 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="C32" s="3">
-        <v>501.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.5</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="F32">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -951,10 +1257,19 @@
         <v>0.13100000000000001</v>
       </c>
       <c r="C33" s="3">
-        <v>30629.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11.1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.378</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="F33">
+        <v>135.69999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -962,10 +1277,19 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="C34" s="3">
-        <v>6685.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="F34">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -973,10 +1297,19 @@
         <v>0.105</v>
       </c>
       <c r="C35" s="3">
-        <v>163.9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F35">
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -984,10 +1317,19 @@
         <v>0.13</v>
       </c>
       <c r="C36" s="3">
-        <v>5164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F36">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -995,10 +1337,19 @@
         <v>0.151</v>
       </c>
       <c r="C37" s="3">
-        <v>1101.0999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="F37">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1006,10 +1357,19 @@
         <v>0.115</v>
       </c>
       <c r="C38" s="3">
-        <v>1811.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11.25</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F38">
+        <v>122.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1017,10 +1377,19 @@
         <v>0.12</v>
       </c>
       <c r="C39" s="3">
-        <v>16909.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="F39">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1028,10 +1397,19 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="C40" s="3">
-        <v>1727.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10.5</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F40">
+        <v>111.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1039,10 +1417,19 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="C41" s="3">
-        <v>1554.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="F41">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1050,10 +1437,19 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="C42" s="3">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="F42">
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1061,10 +1457,19 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="C43" s="3">
-        <v>3632.7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F43">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1072,10 +1477,19 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="C44" s="3">
-        <v>12472.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.308</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="F44">
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -1083,10 +1497,19 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="C45" s="3">
-        <v>2511.3000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="F45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -1094,10 +1517,19 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="C46" s="3">
-        <v>779.4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10.78</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="F46">
+        <v>116.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -1105,10 +1537,19 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="C47" s="3">
-        <v>4554.8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="F47">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1116,10 +1557,19 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="C48" s="3">
-        <v>2859.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="F48">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -1127,10 +1577,19 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="C49" s="3">
-        <v>361.2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.75</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F49">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -1138,10 +1597,19 @@
         <v>0.104</v>
       </c>
       <c r="C50" s="3">
-        <v>3252.7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.25</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.313</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="F50">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -1149,7 +1617,16 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="C51" s="3">
-        <v>110.2</v>
+        <v>7.25</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="F51">
+        <v>91.66</v>
       </c>
     </row>
   </sheetData>
